--- a/medicine/Enfance/Jennifer_Armentrout/Jennifer_Armentrout.xlsx
+++ b/medicine/Enfance/Jennifer_Armentrout/Jennifer_Armentrout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jennifer Lynn Armentrout, née le 6 juin 1980 à Martinsburg en Virginie-Occidentale, est une auteure américaine de romance contemporaine, de paranormal et de science-fiction[1],[2].
-Certaines de ses œuvres figurent sur la liste des best-sellers du New York Times[3],[4]. Son roman pour jeunes adultes Obsidienne a été choisi par Sierra Pictures pour être adapté en film[5],[6].
-Elle est considérée comme une auteure « hybride », ayant réussi à s'auto-éditer tout en maintenant des contrats actifs avec de maisons d'éditions indépendantes et des éditeurs traditionnels[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer Lynn Armentrout, née le 6 juin 1980 à Martinsburg en Virginie-Occidentale, est une auteure américaine de romance contemporaine, de paranormal et de science-fiction,.
+Certaines de ses œuvres figurent sur la liste des best-sellers du New York Times,. Son roman pour jeunes adultes Obsidienne a été choisi par Sierra Pictures pour être adapté en film,.
+Elle est considérée comme une auteure « hybride », ayant réussi à s'auto-éditer tout en maintenant des contrats actifs avec de maisons d'éditions indépendantes et des éditeurs traditionnels,.
 </t>
         </is>
       </c>
@@ -515,9 +527,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous le nom de Jennifer L. Armentrout
-Univers Covenant
-Série Covenant
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Univers Covenant</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Série Covenant
 0,5. (en) Daimon, 2011
 Démon suivi de Sang-mêlé, J'ai lu, 2017 ((en) Half-Blood, 2011), trad. Paola Appelius, 480 p.  (ISBN 978-2-290-07883-9)Comprend également la traduction française de la nouvelle Daimon
 Sang-pur, J'ai lu, 2018 ((en) Pure, 2012), trad. Paola Appelius, 480 p.  (ISBN 978-2-290-07884-6)
@@ -529,9 +549,47 @@
 Confusion, J'ai lu, 2023 ((en) The Return, 2015), trad. Paola Appelius, 448 p.  (ISBN 978-2-290-23606-2)
 L'Éther, J'ai lu, 2023 ((en) The Power, 2016), trad. Paola Appelius, 416 p.  (ISBN 978-2-290-23607-9)
 (en) The Struggle, 2017
-(en) The Prophecy, 2018
-Univers Lux
-Série Lux
+(en) The Prophecy, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Univers Lux</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série Lux
 0,5 Ombres, J'ai lu, 2017 ((en) Shadows, 2012), trad. Cécile Tasson  (ISBN 978-2-290-15101-3)Paru en français uniquement au format numérique
 Obsidienne, J'ai lu, 2014 ((en) Obsidienne, 2011), trad. Cécile Tasson, 380 p.  (ISBN 978-2-29-007046-8)
 1,5 Oubli - L'Intégrale, J'ai lu, 2017 ((en) Oblivion, 2015), trad. Amélie Sarn et Cécile Tasson, 1088 p.  (ISBN 978-2-290-12186-3)Contient également Ombres paru séparément au format numérique
@@ -545,9 +603,47 @@
 Flamme obscure, J'ai lu, 2020 ((en) The Burning Shadow, 2019), trad. Cécile Tasson, 576 p.  (ISBN 978-2-290-20687-4)
 Nuit scintillante, J'ai lu, 2021 ((en) The Brightest Night, 2020), trad. Cécile Tasson, 640 p.  (ISBN 978-2-290-20688-1)
 Série Arum
-Obsession, J'ai lu, 2015 ((en) Obsession, 2013), trad. Paola Appelius, 384 p.  (ISBN 978-2-290-08605-6)
-Univers Dark Elements
-Série Dark Elements
+Obsession, J'ai lu, 2015 ((en) Obsession, 2013), trad. Paola Appelius, 384 p.  (ISBN 978-2-290-08605-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Univers Dark Elements</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Série Dark Elements
 0,5 (en) Bitter Sweet Love, 2013
 Baiser brûlant, J'ai lu, 2020 ((en) White Hot Kiss, 2014), trad. Paola Appelius, 448 p.  (ISBN 978-2-290-21013-0)
 Toucher glaçant, J'ai lu, 2020 ((en) Stone Cold Touch, 2014), trad. Paola Appelius, 480 p.  (ISBN 978-2-290-21014-7)
@@ -555,13 +651,89 @@
 Série Le Précurseur
 La Foudre et la Fureur, J'ai lu, 2022 ((en) Storm and Fury, 2019), trad. Charline McGregor, 544 p.  (ISBN 978-2-290-22302-4)
 La Rage et la Ruine, J'ai lu, 2023 ((en) Rage and Ruin, 2020), trad. Charline McGregor, 576 p.  (ISBN 978-2-290-38818-1)
-La Grâce et la Gloire, J'ai lu, 2024 ((en) Grace and Glory, 2021), trad. Charline McGregor, 544 p.  (ISBN 978-2-290-38813-6)
-Série Wicked
-(en) Wicked, 2014
+La Grâce et la Gloire, J'ai lu, 2024 ((en) Grace and Glory, 2021), trad. Charline McGregor, 544 p.  (ISBN 978-2-290-38813-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Wicked</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Wicked, 2014
 (en) Torn, 2016
-(en) Brave, 2017
-Univers Le Sang et la Cendre
-Série Le Sang et la Cendre
+(en) Brave, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Univers Le Sang et la Cendre</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série Le Sang et la Cendre
 Le Sang et la Cendre, De Saxus, 2021 ((en) From Blood And Ash, 2020), trad. Cécile Tasson, 663 p.  (ISBN 978-2-37876-159-2)
 Un royaume de chair et de feu, De Saxus, 2022 ((en) A Kingdom of Flesh and Fire, 2020), trad. Cécile Tasson, 763 p.  (ISBN 978-2-37876-175-2)
 La Couronne d'os dorés, De Saxus, 2023 ((en) The Crown of Gilded Bones, 2021), trad. Anaïs Papillon, 799 p.  (ISBN 978-2-37876-250-6)
@@ -571,37 +743,264 @@
 Une ombre dans la braise, De Saxus, 2023 ((en) A Shadow in the Ember, 2021), trad. Paola Appelius, 800 p.  (ISBN 978-2-37876-353-4)
 (en) A Light in the Flame, 2022
 (en) A Fire in the Flesh, 2023
-(en) Born of Blood and Ash, 2024
-Série Ombre et Mystère
-Envoûtée, J'ai lu, 2019 ((en) Moonlight Sins, 2018), trad. Cécile Tasson, 448 p.  (ISBN 978-2-290-20004-9)
+(en) Born of Blood and Ash, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Ombre et Mystère</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Envoûtée, J'ai lu, 2019 ((en) Moonlight Sins, 2018), trad. Cécile Tasson, 448 p.  (ISBN 978-2-290-20004-9)
 Troublée, J'ai lu, 2019 ((en) Moonlight Seduction, 2018), trad. Cécile Tasson, 448 p.  (ISBN 978-2-290-20005-6)
-Fascinée, J'ai lu, 2019 ((en) Moonlight Scandals, 2019), trad. Cécile Tasson, 480 p.  (ISBN 978-2-290-20006-3)
-Série Awakening
-(en) Fall of Ruin and Wrath, 2023
-Romans indépendants
-(en) Maudit, 2012
+Fascinée, J'ai lu, 2019 ((en) Moonlight Scandals, 2019), trad. Cécile Tasson, 480 p.  (ISBN 978-2-290-20006-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Awakening</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Fall of Ruin and Wrath, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jennifer L. Armentrout</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Maudit, 2012
 (en) Unchained, 2013
 Ne te retourne pas, J'ai lu, 2022 ((en) Don't Look Back, 2014), trad. Cécile Tasson, 416 p.  (ISBN 978-2-290-23540-9)
 (en) Italien on duty, 2014
 (en) The Dead List, 2015
 L'Éternité, c'est compliqué, J'ai lu, 2018 ((en) The Problem with Forever, 2016), trad. Cécile Tasson, 480 p.  (ISBN 978-2-290-14417-6)
 (en) Till Death, 2017
-Si demain n'existe pas, J'ai lu, 2019 ((en) If There's No Tomorrow, 2017), trad. Cécile Tasson, 352 p.  (ISBN 978-2-290-15966-8)
-Sous le nom de J. Lynn (uniquement en langue originale)
-Série Wait for You
-Jeu de patience, J'ai lu, 2014 ((en) Wait for You, 2013), trad. Benjamin Kuntzer, 448 p.  (ISBN 978-2-290-08067-2)
+Si demain n'existe pas, J'ai lu, 2019 ((en) If There's No Tomorrow, 2017), trad. Cécile Tasson, 352 p.  (ISBN 978-2-290-15966-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous le nom de J. Lynn (uniquement en langue originale)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Wait for You</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jeu de patience, J'ai lu, 2014 ((en) Wait for You, 2013), trad. Benjamin Kuntzer, 448 p.  (ISBN 978-2-290-08067-2)
 1,5 Jeu de confiance, J'ai lu, 2018 ((en) Trust in Me, 2013), trad. Cécile Tasson  (ISBN 978-2-290-16838-7)Paru en français uniquement au format numérique
  Jeu d'innocence, J'ai lu, 2015 ((en) Be With Me, 2014), trad. Cécile Tasson, 448 p.  (ISBN 978-2-290-08272-0)
 Jeu d'indulgence, J'ai lu, 2016 ((en) Stay With Me, 2014), trad. Cécile Tasson, 544 p.  (ISBN 978-2-290-08273-7)
 Jeu d'imprudence, J'ai lu, 2016 ((en) Fall With Me, 2015), trad. Cécile Tasson, 384 p.  (ISBN 978-2-290-13032-2)
 4,5 Jeu de méfiance, J'ai lu, 2018 ((en) Dream of You, 2015), trad. Cécile Tasson  (ISBN 978-2-290-16844-8)Paru en français uniquement au format numérique
  Jeu d'attirance, J'ai lu, 2017 ((en) Forever With You, 2015), trad. Cécile Tasson, 384 p.  (ISBN 978-2-290-13425-2)
-Jeu inconscience, J'ai lu, 2018 ((en) Fire in You, 2016), trad. Cécile Tasson, 384 p.  (ISBN 978-2-290-14785-6)
-Série Frigid
-À huis clos, J'ai lu, 2017 ((en) Frigid, 2013), trad. Cécile Tasson, 352 p.  (ISBN 978-2-290-09496-9)
-À demi-mot, J'ai lu, 2017 ((en) Scorched, 2015), trad. Paola Appelius, 320 p.  (ISBN 978-2-290-09547-8)
-Série Les Frères Gamble (2014) / Tempting Love (2024)
-Le Témoin, Milady, 2024 (Tempting the Best Man, 2012), trad. Julie Lauret-Noyal, 288 p.  (ISBN 978-2811225414)
+Jeu inconscience, J'ai lu, 2018 ((en) Fire in You, 2016), trad. Cécile Tasson, 384 p.  (ISBN 978-2-290-14785-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous le nom de J. Lynn (uniquement en langue originale)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Frigid</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>À huis clos, J'ai lu, 2017 ((en) Frigid, 2013), trad. Cécile Tasson, 352 p.  (ISBN 978-2-290-09496-9)
+À demi-mot, J'ai lu, 2017 ((en) Scorched, 2015), trad. Paola Appelius, 320 p.  (ISBN 978-2-290-09547-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jennifer_Armentrout</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous le nom de J. Lynn (uniquement en langue originale)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Les Frères Gamble (2014) / Tempting Love (2024)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le Témoin, Milady, 2024 (Tempting the Best Man, 2012), trad. Julie Lauret-Noyal, 288 p.  (ISBN 978-2811225414)
 L'Athlète, Milady, 2024 (Tempting the Player, 2012), trad. Julie Lauret-Noyal, 384 p.  (ISBN 9782811233952)
 Le Garde du Corps, Milady, 2024 (Tempting the Bodyguard, 2014), trad. Julie Lauret-Noyal, 360 p.  (ISBN 9782820523488)</t>
         </is>
